--- a/data/dane.xlsx
+++ b/data/dane.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theku\Documents\Kalina\next-js-v5\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6980A356-9B61-4503-9923-652F5876C1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7864273C-D65E-4685-A088-61B4EBA663BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1215" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1215" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="List1" sheetId="1" r:id="rId1"/>
+    <sheet name="blog" sheetId="1" r:id="rId1"/>
+    <sheet name="cennik" sheetId="2" r:id="rId2"/>
+    <sheet name="portfolio" sheetId="3" r:id="rId3"/>
+    <sheet name="oferta" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -189,12 +191,21 @@
   <si>
     <t>kolor stylizacji</t>
   </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>rr</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -591,11 +602,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.5546875" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" customWidth="1"/>
@@ -609,7 +620,7 @@
     <col min="10" max="10" width="45.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -641,7 +652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1">
+    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -670,7 +681,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -699,7 +710,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -728,7 +739,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -757,7 +768,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -786,7 +797,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -820,4 +831,79 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA9FFD1-E34E-444B-AD28-7AC5766CF449}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE65541-FDB1-46AF-A4D0-EEF1C55A6E05}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47757184-5BFF-4EC5-A236-D07E558DE496}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/dane.xlsx
+++ b/data/dane.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theku\Documents\Kalina\next-js-v5\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7864273C-D65E-4685-A088-61B4EBA663BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DBFEFA-B69D-467D-9244-7ECC8742EE71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1215" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="95">
   <si>
     <t>id</t>
   </si>
@@ -198,7 +198,215 @@
     <t>ss</t>
   </si>
   <si>
-    <t>rr</t>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>MAKIJAŻ</t>
+  </si>
+  <si>
+    <t>MAKIJAŻ ŚLUBNY</t>
+  </si>
+  <si>
+    <t>BRWI &amp; RZĘSY</t>
+  </si>
+  <si>
+    <t>express touch up / dzienny / makeup no makeup / sceniczny / okazjonalny / wieczorowy / studniówkowy/ sylwestrowy / biznesowy / do sesji / 
+1,5 h - 250zł</t>
+  </si>
+  <si>
+    <t>próbny 
+2 h - 250 zł
+ ślubny
+ 1,5 h- 350 zł</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zarezerwuj termin u zaprzyjaźnionych specjalistek 
+@julitajaroma </t>
+  </si>
+  <si>
+    <t>powered by Dyson 
+1 h - 120 zł</t>
+  </si>
+  <si>
+    <t>STYLIZACJA WŁOSÓW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEKCJA MAKIJAŻU </t>
+  </si>
+  <si>
+    <t>makijaz</t>
+  </si>
+  <si>
+    <t>lekcja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Idealna propozycja dla każdej kobiety, która chce zadbać o swój wygląd zarówno w dzień, jak i wieczór.
+Na indywidualnej lekcji makijażu nauczysz się jak wykonać go tak, aby pozostał trwały, wyglądał czysto i estetycznie.
+ Zadbam o Twój lepszy wizerunek analizując domową pielęgnacje i kosmetyczkę. Stworzymy razem idealny look dostosowany do Twoich potrzeb, typu urody, oparty o właściwe produkty.
+Jeśli chcesz, możesz na lekcje makijażu zaprosić mamę lub przyjaciółkę i spędzić kobiecy wspólny czas.
+Każdej z Was zapewniam osobne, komfortowe lustro i zestaw pomocniczy pędzli i kosmetyków oraz face chart do notatek ze spotkania oraz prosseco lub pyszną herbatę, jak wolisz!
+Zagadnienia na czas lekcji makijażu
+analiza pielęgnacji domowej i rutyny pielęgnacyjnej
+omówienie podstaw pielęgnacji domowej według rodzaju i potrzeb skóry
+analiza kosmetyczki i akcesoriów 
+dobór kosmetyków kolorowych i akcesoriów do makijażu (pędzle, gąbki etc.)
+kolejność w makijażu
+techniki aplikacji podkładu i pudru dla uzyskania „flawless look”
+konturowanie na mokro i sucho - modelowanie twarzy
+techniki aplikacji różu i rozświetlacza
+kształt oka a cieniowanie, blendowanie cieni
+kreska - jak i czym ją namalować
+makijaż ust - powiększanie makijażem, utrwalanie 
+brwi – konstrukcja, podkreślanie, malowanie
+specyfika makijażu dziennego
+ specyfika makijażu wieczorowego
+jak szybko zmienić makijaż dzienny w wieczorowy
+technika a trwałość w makijażu
+klejenie sztucznych rzęs *dla chętnych
+Czas trwania: 4h
+Cena: 750 zł
+Cena za grupę dwuosobową: 1200 (600 zł osoba)
+Istnieje możliwość przedłużenia lekcji (150 zł/h)
+Możliwość przesłania podsumowania spotkania, linków do omawianych produktów i propozycji na maila (70 zł)
+Szkolenie odbywa się w Twoim domu po to, abyś malując się sama w przyszłości czuła się pewnie w świetle i miejscu, które znasz. 
+Będziemy używać Twoich kosmetyków, abyś w kolejnych dniach czuła się pewnie wykonując go sama, ale najpierw je przeglądniemy
+Na spotkanie zabieram ze sobą wszystkie moje pomoce, akcesoria i kosmetyki, więc nie martw się, niczego nam nie zabraknie</t>
+  </si>
+  <si>
+    <t>PAKIETY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wymagana wcześniejsza rezerwacja/ ceny ustalane indywidualnie w zależności od miejsca i wyboru fotografa
+we współpracy z
+ @lindaparys @rozamatusiakfotografia @justyna_zdunczyk </t>
+  </si>
+  <si>
+    <t>BUSSINES</t>
+  </si>
+  <si>
+    <t>makijaż biznesowy/ włosy powered by Dyson/ sesja zdjęciowa biznesowa 
+od 800 zł</t>
+  </si>
+  <si>
+    <t>WONDER WOMAN</t>
+  </si>
+  <si>
+    <t>makijaż do zdjęć/ włosy powered by Dyson/ sesja kobieca
+od 800 zł</t>
+  </si>
+  <si>
+    <t>MAKE ME UP</t>
+  </si>
+  <si>
+    <t>nauka makijażu/ metamorfoza z sesją zdjęciową
+od 1500 zł</t>
+  </si>
+  <si>
+    <t>THINK BEAUTY</t>
+  </si>
+  <si>
+    <t>analiza typu skóry z kosmetolog/ dobór pielęgnacji/ przegląd domowej kosmetyczki/ nauka makijażu/ 
+we współpracy z 
+@beautybarolgadebowska @skinbalance
+od 1500 zł</t>
+  </si>
+  <si>
+    <t>GO GIRL</t>
+  </si>
+  <si>
+    <t>konsultacja kosmetologiczna, analiza typu skóry / dobór pielęgnacji / przegląd domowej kosmetyczki / indywidualna lekcja makijażu / wspólne zakupy / beauty plan i face chart / sesja zdjęciowa z makijażem i fryzurą
+od 2500 zł</t>
+  </si>
+  <si>
+    <t>BRIDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">konsultacja kosmetologiczna/ dwa zabiegi miesiąc i dzień przed ślubem dobrane do indywidualnych potrzeb skóry/ makijaż próbny/ makijaż ślubny
+od 1800zł </t>
+  </si>
+  <si>
+    <t>MASTERCLASS</t>
+  </si>
+  <si>
+    <t>masterclass</t>
+  </si>
+  <si>
+    <t>DLA BIZNESU</t>
+  </si>
+  <si>
+    <t>Wizerunek w biznesie zmienia się. Wystąpienia publiczne, nagrania, spotkania online, konferencje i wyjazdy to dzisiaj norma. To jak się zaprezentujesz zależy nie tylko od światła, ustawienia kamer, czy pomieszczenia w jakim się znajdziesz. Twój wizerunek ma ogromne znaczenie. Niezależnie czy na żywo, czy online.
+Specjalnie dla Ciebie przygotowałam pakiet DLA BIZNESU. 
+Pakiet został podzielony na moduły:
+MODUŁ 1 
+spotkanie ze stylistą, analiza potrzeb, dobór garderoby 
+MODUŁ 2 
+nauka wykonywania makijażu do nagrań i wystąpień, 
+omówienie różnic makijażu do nagrań, na scenę a do biura
+zaprezentowanie przykładowych stylizacji włosów pasujących do sytuacji
+MODUŁ 3 
+sesja zdjęciowa biznesowa
+Czas trwania od 2-3 dni w 4 h spotkaniach
+Cena 4000 zł</t>
+  </si>
+  <si>
+    <t>DLA MAŁYCH I DUZYCH FIRM</t>
+  </si>
+  <si>
+    <t>Chcesz zorganizować warsztaty dla swoich pracowników?
+Automasaż twarzy, joga dla kręgosłupa, szybki makijaż do pracy lub na wystąpienie?
+Zapraszam na specjalnie przygotowane SZKOLENIA DLA MAŁYCH I DUŻYCH FIRM
+Proponowane szkolenia
+joga &amp;automasaż twarzy
+wykład kosmetolog &amp; pokaz makijażu biznesowego na modelce
+możliwość dopasowania szkoleń pod Wasze potrzeby (coacher, stylista, fotograf, kosmetolog, nauczyciel jogi, makijażysta i stylista fryzur)</t>
+  </si>
+  <si>
+    <t>WARSZTATY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Współpracuje z wspaniałymi ludźmi i profesjonalistami. Tworzymy niezapomniane, wyjątkowe warsztaty tematyczne jednodniowe oraz weekendowe wyjazdowe skrojone na potrzeby klienta. 
+Kosmetologia, makijaż, fotografia, stylizacje, czy nawet joga dają się połączyć, mogą być interesującą odskocznią dla każdego.
+Coaching w biznesie, oddech w pracy, wygląd w biurze? 
+Napisz, co Cię interesuje i jaka grupa osób miałaby brać udział w warsztatach, a odeślemy Ci naszą ofertę.
+ Zapraszam. </t>
+  </si>
+  <si>
+    <t>ONLINE</t>
+  </si>
+  <si>
+    <t>konsultacja - pytania i odpowiedzi 
+1 h – 200 zł
+konsultacja – pomoc w wyborze i zakupie kosmetyków 
+1 h – 250 zł</t>
+  </si>
+  <si>
+    <t>ZAKUPY</t>
+  </si>
+  <si>
+    <t>ZAKUPY
+Podejmujesz nieprzemyślane decyzje lub dajesz się namówić na kosmetyki, których nigdy nie użyjesz, a może namówiła Cię blogerka lub reklama w gazecie, czy telewizji? Zabierz mnie ze sobą na zakupy do sklepów stacjonarnych i kup to, co:
+ będzie Ci potrzebne, 
+będzie Ci służyć
+będzie do Ciebie pasować
+Cena 600 zł
+Czas 2-3 h</t>
+  </si>
+  <si>
+    <t>SESJE / PLANY ZDJĘCIOWE</t>
+  </si>
+  <si>
+    <t>Polska i świat
+sesje i plany zdjęciowe wyceniane indywidualnie 
+zapraszam do kontaktu
+wystawiam FV</t>
+  </si>
+  <si>
+    <t>WSPÓŁPRACA</t>
+  </si>
+  <si>
+    <t>Chcesz podjąć współpracę? 
+Napisz, porozmawiajmy.</t>
   </si>
 </sst>
 </file>
@@ -256,7 +464,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -309,17 +517,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -835,26 +1062,267 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA9FFD1-E34E-444B-AD28-7AC5766CF449}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="52.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="4" max="4" width="109.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>50</v>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data/dane.xlsx
+++ b/data/dane.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theku\Documents\Kalina\next-js-v5\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DBFEFA-B69D-467D-9244-7ECC8742EE71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FCE98A-7107-4229-8835-E8BF33D0CA4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1215" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1215" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="blog" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="105">
   <si>
     <t>id</t>
   </si>
@@ -407,6 +407,36 @@
   <si>
     <t>Chcesz podjąć współpracę? 
 Napisz, porozmawiajmy.</t>
+  </si>
+  <si>
+    <t>photo_id</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorem Ipsum is simply dummy </t>
+  </si>
+  <si>
+    <t> text of the printing and typesetting industry. Lorem Ipsum has been t</t>
+  </si>
+  <si>
+    <t>s and web page editors now use Lorem Ipsum as their default mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">randomised </t>
+  </si>
+  <si>
+    <t>Virginia, looked up one of the more obscure Latin words, consectetur, from a Lorem Ipsum passage, and going through the cites of the word in classical literature, discovered the undoubtable source. Lo</t>
+  </si>
+  <si>
+    <t>ombined with a handful of model sentence structures, to genera</t>
+  </si>
+  <si>
+    <t>se Lorem Ips</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simply dummy </t>
   </si>
 </sst>
 </file>
@@ -536,7 +566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -547,6 +577,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1064,7 +1095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA9FFD1-E34E-444B-AD28-7AC5766CF449}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1328,26 +1359,283 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE65541-FDB1-46AF-A4D0-EEF1C55A6E05}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="77.77734375" customWidth="1"/>
+    <col min="3" max="3" width="82.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>50</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data/dane.xlsx
+++ b/data/dane.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theku\Documents\Kalina\next-js-v5\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FCE98A-7107-4229-8835-E8BF33D0CA4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79422FBA-6214-44B5-BCA6-0A3D4E361610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1215" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29250" yWindow="900" windowWidth="21570" windowHeight="11220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="blog" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="106">
   <si>
     <t>id</t>
   </si>
@@ -437,6 +437,9 @@
   </si>
   <si>
     <t xml:space="preserve">simply dummy </t>
+  </si>
+  <si>
+    <t>test3</t>
   </si>
 </sst>
 </file>
@@ -1362,7 +1365,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1403,8 +1406,8 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" t="s">
+        <v>105</v>
       </c>
       <c r="B4" t="s">
         <v>99</v>

--- a/data/dane.xlsx
+++ b/data/dane.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theku\Documents\Kalina\next-js-v5\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79422FBA-6214-44B5-BCA6-0A3D4E361610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49889ADF-B15E-46E4-AEB2-295B8423AC38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29250" yWindow="900" windowWidth="21570" windowHeight="11220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="128">
   <si>
     <t>id</t>
   </si>
@@ -409,9 +409,6 @@
 Napisz, porozmawiajmy.</t>
   </si>
   <si>
-    <t>photo_id</t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
@@ -439,7 +436,76 @@
     <t xml:space="preserve">simply dummy </t>
   </si>
   <si>
-    <t>test3</t>
+    <t>photo_url</t>
+  </si>
+  <si>
+    <t>images/1.png</t>
+  </si>
+  <si>
+    <t>images/2.png</t>
+  </si>
+  <si>
+    <t>images/test3.png</t>
+  </si>
+  <si>
+    <t>images/4.png</t>
+  </si>
+  <si>
+    <t>images/5.png</t>
+  </si>
+  <si>
+    <t>images/6.png</t>
+  </si>
+  <si>
+    <t>images/7.png</t>
+  </si>
+  <si>
+    <t>images/8.png</t>
+  </si>
+  <si>
+    <t>images/9.png</t>
+  </si>
+  <si>
+    <t>images/10.png</t>
+  </si>
+  <si>
+    <t>images/11.png</t>
+  </si>
+  <si>
+    <t>images/12.png</t>
+  </si>
+  <si>
+    <t>images/13.png</t>
+  </si>
+  <si>
+    <t>images/14.png</t>
+  </si>
+  <si>
+    <t>images/15.png</t>
+  </si>
+  <si>
+    <t>images/16.png</t>
+  </si>
+  <si>
+    <t>images/17.png</t>
+  </si>
+  <si>
+    <t>images/18.png</t>
+  </si>
+  <si>
+    <t>images/19.png</t>
+  </si>
+  <si>
+    <t>images/20.png</t>
+  </si>
+  <si>
+    <t>images/21.png</t>
+  </si>
+  <si>
+    <t>images/22.png</t>
+  </si>
+  <si>
+    <t>images/23.png</t>
   </si>
 </sst>
 </file>
@@ -1364,279 +1430,280 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE65541-FDB1-46AF-A4D0-EEF1C55A6E05}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="24.77734375" customWidth="1"/>
     <col min="2" max="2" width="77.77734375" customWidth="1"/>
     <col min="3" max="3" width="82.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>98</v>
-      </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" t="s">
         <v>99</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" t="s">
         <v>100</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="C11" t="s">
         <v>102</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" t="s">
         <v>103</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>104</v>
-      </c>
-      <c r="C22" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>98</v>
-      </c>
       <c r="C24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data/dane.xlsx
+++ b/data/dane.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theku\Documents\Kalina\next-js-v5\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49889ADF-B15E-46E4-AEB2-295B8423AC38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECCBC7C-6CC9-4A19-A337-1565D1E683DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29250" yWindow="900" windowWidth="21570" windowHeight="11220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1215" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="blog" sheetId="1" r:id="rId1"/>
@@ -1164,8 +1164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA9FFD1-E34E-444B-AD28-7AC5766CF449}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1430,7 +1430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE65541-FDB1-46AF-A4D0-EEF1C55A6E05}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>

--- a/data/dane.xlsx
+++ b/data/dane.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theku\Documents\Kalina\next-js-v5\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECCBC7C-6CC9-4A19-A337-1565D1E683DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909B317C-606A-47A2-996C-A56358DA9C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1215" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1215" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="blog" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="127">
   <si>
     <t>id</t>
   </si>
@@ -154,9 +154,6 @@
   </si>
   <si>
     <t>vv</t>
-  </si>
-  <si>
-    <t>Łukasz to dobra dupa</t>
   </si>
   <si>
     <t>Stylizacje</t>
@@ -929,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -984,10 +981,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -999,7 +996,7 @@
         <v>23</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H2" t="s">
         <v>30</v>
@@ -1013,10 +1010,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -1042,10 +1039,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1071,10 +1068,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -1100,10 +1097,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
         <v>47</v>
-      </c>
-      <c r="C6" t="s">
-        <v>48</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -1129,7 +1126,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -1164,7 +1161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA9FFD1-E34E-444B-AD28-7AC5766CF449}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1187,7 +1184,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E1" s="7"/>
     </row>
@@ -1196,13 +1193,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="72" x14ac:dyDescent="0.3">
@@ -1210,10 +1207,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1221,10 +1218,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1232,10 +1229,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
@@ -1243,16 +1240,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -1260,10 +1257,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1271,10 +1268,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1282,10 +1279,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1293,10 +1290,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -1304,10 +1301,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -1315,10 +1312,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -1326,10 +1323,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1337,10 +1334,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" t="s">
         <v>79</v>
-      </c>
-      <c r="C14" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
@@ -1348,10 +1345,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
@@ -1359,10 +1356,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
@@ -1370,10 +1367,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
@@ -1381,10 +1378,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
@@ -1392,10 +1389,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
@@ -1403,10 +1400,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -1414,10 +1411,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1443,263 +1440,263 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" t="s">
         <v>101</v>
-      </c>
-      <c r="C6" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1721,12 +1718,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/data/dane.xlsx
+++ b/data/dane.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theku\Documents\Kalina\next-js-v5\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909B317C-606A-47A2-996C-A56358DA9C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B879AA6-4AF0-425D-AE9F-696344F0D528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1215" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="blog" sheetId="1" r:id="rId1"/>
-    <sheet name="cennik" sheetId="2" r:id="rId2"/>
-    <sheet name="portfolio" sheetId="3" r:id="rId3"/>
-    <sheet name="oferta" sheetId="4" r:id="rId4"/>
+    <sheet name="cennik" sheetId="7" r:id="rId1"/>
+    <sheet name="blog" sheetId="1" r:id="rId2"/>
+    <sheet name="cennikx" sheetId="2" r:id="rId3"/>
+    <sheet name="portfolio" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="134">
   <si>
     <t>id</t>
   </si>
@@ -187,12 +187,6 @@
   </si>
   <si>
     <t>kolor stylizacji</t>
-  </si>
-  <si>
-    <t>dd</t>
-  </si>
-  <si>
-    <t>ss</t>
   </si>
   <si>
     <t>desc</t>
@@ -503,6 +497,33 @@
   </si>
   <si>
     <t>images/23.png</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>brwi</t>
+  </si>
+  <si>
+    <t>wlosy</t>
+  </si>
+  <si>
+    <t>opakiety</t>
+  </si>
+  <si>
+    <t>bis</t>
+  </si>
+  <si>
+    <t>wonder</t>
+  </si>
+  <si>
+    <t>before-you-go-go</t>
+  </si>
+  <si>
+    <t>thx</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -923,10 +944,247 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7194EAA-9ECD-4033-8D89-4E343B64DA9F}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E18" sqref="A15:E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="52.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="4" max="4" width="109.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D21" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -1157,12 +1415,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA9FFD1-E34E-444B-AD28-7AC5766CF449}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1184,7 +1442,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E1" s="7"/>
     </row>
@@ -1193,13 +1451,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="72" x14ac:dyDescent="0.3">
@@ -1207,10 +1465,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1218,10 +1476,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1229,10 +1487,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
@@ -1240,16 +1498,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
         <v>60</v>
       </c>
-      <c r="C6" t="s">
-        <v>62</v>
-      </c>
       <c r="D6" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -1257,10 +1515,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1268,10 +1526,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1279,10 +1537,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1290,10 +1548,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -1301,10 +1559,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -1312,10 +1570,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -1323,10 +1581,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1334,10 +1592,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
@@ -1345,10 +1603,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
@@ -1356,10 +1614,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
@@ -1367,10 +1625,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
@@ -1378,10 +1636,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
@@ -1389,10 +1647,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
@@ -1400,10 +1658,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -1411,10 +1669,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1423,7 +1681,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE65541-FDB1-46AF-A4D0-EEF1C55A6E05}">
   <dimension ref="A1:C24"/>
   <sheetViews>
@@ -1440,263 +1698,263 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" t="s">
         <v>97</v>
-      </c>
-      <c r="C18" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1704,29 +1962,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47757184-5BFF-4EC5-A236-D07E558DE496}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/dane.xlsx
+++ b/data/dane.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theku\Documents\Kalina\next-js-v5\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B879AA6-4AF0-425D-AE9F-696344F0D528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2349E60-9A4B-4145-AC84-349181789277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1215" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1215" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cennik" sheetId="7" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="128">
   <si>
     <t>id</t>
   </si>
@@ -136,24 +136,6 @@
       </rPr>
       <t> is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</t>
     </r>
-  </si>
-  <si>
-    <t>xx</t>
-  </si>
-  <si>
-    <t>yy</t>
-  </si>
-  <si>
-    <t>zz</t>
-  </si>
-  <si>
-    <t>ee</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>vv</t>
   </si>
   <si>
     <t>Stylizacje</t>
@@ -947,7 +929,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7194EAA-9ECD-4033-8D89-4E343B64DA9F}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E18" sqref="A15:E18"/>
     </sheetView>
   </sheetViews>
@@ -970,7 +952,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E1" s="7"/>
     </row>
@@ -979,13 +961,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="72" x14ac:dyDescent="0.3">
@@ -993,13 +975,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1007,13 +989,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1021,13 +1003,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
@@ -1035,16 +1017,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -1052,13 +1034,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1066,13 +1048,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1080,13 +1062,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1094,13 +1076,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -1108,13 +1090,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -1122,13 +1104,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -1136,10 +1118,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1147,10 +1129,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1184,8 +1166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1239,10 +1221,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
         <v>38</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -1260,7 +1242,7 @@
         <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1268,10 +1250,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
         <v>39</v>
-      </c>
-      <c r="C3" t="s">
-        <v>45</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -1289,7 +1271,7 @@
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1297,10 +1279,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1318,7 +1300,7 @@
         <v>30</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1326,10 +1308,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -1347,7 +1329,7 @@
         <v>31</v>
       </c>
       <c r="J5" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1355,10 +1337,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -1376,7 +1358,7 @@
         <v>30</v>
       </c>
       <c r="J6" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1384,7 +1366,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -1405,7 +1387,7 @@
         <v>29</v>
       </c>
       <c r="J7" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1442,7 +1424,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E1" s="7"/>
     </row>
@@ -1451,13 +1433,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="72" x14ac:dyDescent="0.3">
@@ -1465,10 +1447,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1476,10 +1458,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1487,10 +1469,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
@@ -1498,16 +1480,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -1515,10 +1497,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1526,10 +1508,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1537,10 +1519,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1548,10 +1530,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -1559,10 +1541,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -1570,10 +1552,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -1581,10 +1563,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1592,10 +1574,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
@@ -1603,10 +1585,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
@@ -1614,10 +1596,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
@@ -1625,10 +1607,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
@@ -1636,10 +1618,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
@@ -1647,10 +1629,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
@@ -1658,10 +1640,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -1669,10 +1651,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1686,7 +1668,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1698,263 +1680,263 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" t="s">
         <v>93</v>
-      </c>
-      <c r="C16" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/dane.xlsx
+++ b/data/dane.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theku\Documents\Kalina\next-js-v5\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2349E60-9A4B-4145-AC84-349181789277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951200E5-DFE1-4296-8782-CDAE2CD5BB16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1215" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cennik" sheetId="7" r:id="rId1"/>
     <sheet name="blog" sheetId="1" r:id="rId2"/>
-    <sheet name="cennikx" sheetId="2" r:id="rId3"/>
-    <sheet name="portfolio" sheetId="3" r:id="rId4"/>
+    <sheet name="cennikx" sheetId="6" r:id="rId3"/>
+    <sheet name="cennikold" sheetId="2" r:id="rId4"/>
+    <sheet name="portfolio" sheetId="3" r:id="rId5"/>
+    <sheet name="oferta" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="149">
   <si>
     <t>id</t>
   </si>
@@ -138,6 +140,24 @@
     </r>
   </si>
   <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t>yy</t>
+  </si>
+  <si>
+    <t>zz</t>
+  </si>
+  <si>
+    <t>ee</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>vv</t>
+  </si>
+  <si>
     <t>Stylizacje</t>
   </si>
   <si>
@@ -169,6 +189,12 @@
   </si>
   <si>
     <t>kolor stylizacji</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>ss</t>
   </si>
   <si>
     <t>desc</t>
@@ -481,31 +507,71 @@
     <t>images/23.png</t>
   </si>
   <si>
+    <t>sub_title1</t>
+  </si>
+  <si>
+    <t>sub_desc1</t>
+  </si>
+  <si>
+    <t>sub_title2</t>
+  </si>
+  <si>
+    <t>sub_desc2</t>
+  </si>
+  <si>
+    <t>sub_title3</t>
+  </si>
+  <si>
+    <t>sub_desc3</t>
+  </si>
+  <si>
+    <t>sub_desc4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> / dzienny / makeup no makeup / sceniczny / okazjonalny / wieczorowy / studniówkowy/ sylwestrowy / biznesowy / do sesji / 
+1,5 h - 250zł</t>
+  </si>
+  <si>
+    <t>express touch up</t>
+  </si>
+  <si>
+    <t>dzienny</t>
+  </si>
+  <si>
+    <t>makeup no makeup</t>
+  </si>
+  <si>
+    <t>sceniczny</t>
+  </si>
+  <si>
+    <t>sub_title4</t>
+  </si>
+  <si>
+    <t>test test test test test test test test test test test test test test test test test test</t>
+  </si>
+  <si>
     <t>test</t>
   </si>
   <si>
-    <t>brwi</t>
-  </si>
-  <si>
-    <t>wlosy</t>
-  </si>
-  <si>
-    <t>opakiety</t>
-  </si>
-  <si>
-    <t>bis</t>
-  </si>
-  <si>
-    <t>wonder</t>
-  </si>
-  <si>
-    <t>before-you-go-go</t>
-  </si>
-  <si>
-    <t>thx</t>
-  </si>
-  <si>
-    <t>yes</t>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>MAKIJAŻ test</t>
+  </si>
+  <si>
+    <t>MAKIJAŻ test2</t>
+  </si>
+  <si>
+    <t>sss</t>
+  </si>
+  <si>
+    <t>subtitle1</t>
+  </si>
+  <si>
+    <t>subtitle2</t>
+  </si>
+  <si>
+    <t>subtitle3</t>
   </si>
 </sst>
 </file>
@@ -563,7 +629,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -631,11 +697,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -647,6 +724,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -926,11 +1004,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7194EAA-9ECD-4033-8D89-4E343B64DA9F}">
-  <dimension ref="A1:E21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39639940-3EE4-4401-82FD-26EF66AE7CD8}">
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E18" sqref="A15:E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -941,7 +1019,7 @@
     <col min="4" max="4" width="109.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -952,209 +1030,249 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="F2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" t="s">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" t="s">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" t="s">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D21" s="6"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>93</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1166,8 +1284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1221,10 +1339,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -1242,7 +1360,7 @@
         <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1250,10 +1368,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -1271,7 +1389,7 @@
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1279,10 +1397,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1300,7 +1418,7 @@
         <v>30</v>
       </c>
       <c r="J4" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1308,10 +1426,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -1329,7 +1447,7 @@
         <v>31</v>
       </c>
       <c r="J5" t="s">
-        <v>99</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1337,10 +1455,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -1358,7 +1476,7 @@
         <v>30</v>
       </c>
       <c r="J6" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1366,7 +1484,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -1387,7 +1505,7 @@
         <v>29</v>
       </c>
       <c r="J7" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1398,11 +1516,153 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8510D552-EBDC-4E85-9663-4640BD89CACE}">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" customWidth="1"/>
+    <col min="4" max="4" width="82.6640625" customWidth="1"/>
+    <col min="5" max="5" width="73.21875" customWidth="1"/>
+    <col min="6" max="6" width="64.33203125" customWidth="1"/>
+    <col min="7" max="7" width="55.44140625" customWidth="1"/>
+    <col min="8" max="8" width="46" customWidth="1"/>
+    <col min="9" max="9" width="37.44140625" customWidth="1"/>
+    <col min="10" max="10" width="41.77734375" customWidth="1"/>
+    <col min="11" max="11" width="59.21875" customWidth="1"/>
+    <col min="12" max="12" width="197" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K2" t="s">
+        <v>140</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I3" t="s">
+        <v>140</v>
+      </c>
+      <c r="J3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K3" t="s">
+        <v>140</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA9FFD1-E34E-444B-AD28-7AC5766CF449}">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1424,7 +1684,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E1" s="7"/>
     </row>
@@ -1433,13 +1693,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="72" x14ac:dyDescent="0.3">
@@ -1447,10 +1707,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1458,10 +1718,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1469,10 +1729,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
@@ -1480,16 +1740,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -1497,10 +1757,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1508,10 +1768,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1519,10 +1779,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1530,10 +1790,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -1541,10 +1801,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -1552,10 +1812,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -1563,10 +1823,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1574,10 +1834,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
@@ -1585,10 +1845,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
@@ -1596,10 +1856,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
@@ -1607,10 +1867,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
@@ -1618,10 +1878,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
@@ -1629,10 +1889,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
@@ -1640,10 +1900,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -1651,10 +1911,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1663,12 +1923,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE65541-FDB1-46AF-A4D0-EEF1C55A6E05}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1680,263 +1940,263 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>92</v>
-      </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" t="s">
         <v>101</v>
       </c>
-      <c r="B7" t="s">
-        <v>93</v>
-      </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" t="s">
         <v>102</v>
       </c>
-      <c r="B8" t="s">
-        <v>94</v>
-      </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C16" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C18" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B22" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1944,4 +2204,29 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47757184-5BFF-4EC5-A236-D07E558DE496}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>